--- a/Data Analysis/medImp.xlsx
+++ b/Data Analysis/medImp.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cayla\Documents\GithubRepository\MedianImputation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cayla\Documents\GitHub\EngineeringSocialIssues_ARG\Data Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE5AC074-869B-4F9C-AA4A-9B057EDD1016}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{458C823A-ABC4-4E80-96F9-52CC77A7F56B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1470" yWindow="1470" windowWidth="16875" windowHeight="10433" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Behaviors" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="13">
   <si>
     <t>Leadership</t>
   </si>
@@ -75,24 +75,6 @@
   </si>
   <si>
     <t>Time</t>
-  </si>
-  <si>
-    <t>L</t>
-  </si>
-  <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>T</t>
   </si>
   <si>
     <t>x</t>
@@ -737,135 +719,96 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{856ED005-E2A8-462E-B5A1-7018CEFAEA78}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:G1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" s="2" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="7">
+        <v>12</v>
+      </c>
+      <c r="C1" s="7">
+        <v>6</v>
+      </c>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="7">
         <v>14</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A2" s="2" t="s">
-        <v>12</v>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A2" s="7">
+        <v>44</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="7">
-        <v>12</v>
-      </c>
-      <c r="D2" s="7">
-        <v>6</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
       <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="7">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="7">
-        <v>44</v>
-      </c>
+      <c r="F2" s="7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A3" s="7">
+        <v>50</v>
+      </c>
+      <c r="B3" s="6"/>
       <c r="C3" s="6" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
+      <c r="E3" s="7">
+        <v>50</v>
+      </c>
       <c r="F3" s="6"/>
-      <c r="G3" s="7">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="7">
-        <v>50</v>
-      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
       <c r="C4" s="6"/>
       <c r="D4" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="7">
-        <v>50</v>
-      </c>
-      <c r="G4" s="6"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A5" s="2" t="s">
-        <v>15</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="E4" s="7">
+        <v>46</v>
+      </c>
+      <c r="F4" s="6"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A5" s="6"/>
       <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
+      <c r="C5" s="7">
+        <v>6</v>
+      </c>
+      <c r="D5" s="7">
+        <v>10</v>
+      </c>
       <c r="E5" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="7">
-        <v>46</v>
-      </c>
-      <c r="G5" s="6"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="6"/>
+        <v>12</v>
+      </c>
+      <c r="F5" s="6"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A6" s="7">
+        <v>42</v>
+      </c>
+      <c r="B6" s="7">
+        <v>49</v>
+      </c>
       <c r="C6" s="6"/>
-      <c r="D6" s="7">
-        <v>6</v>
-      </c>
-      <c r="E6" s="7">
-        <v>10</v>
-      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
       <c r="F6" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" s="6"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="7">
-        <v>42</v>
-      </c>
-      <c r="C7" s="7">
-        <v>49</v>
-      </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -875,134 +818,96 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81EE2110-3A6C-45BF-B144-633A2795A12B}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A2" s="2" t="s">
-        <v>12</v>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="8">
+        <v>6</v>
+      </c>
+      <c r="C1" s="8">
+        <v>37</v>
+      </c>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A2" s="8">
+        <v>50</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="8">
-        <v>6</v>
-      </c>
-      <c r="D2" s="8">
-        <v>37</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
       <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="8">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="8">
-        <v>50</v>
-      </c>
+      <c r="F2" s="8">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A3" s="8">
+        <v>19</v>
+      </c>
+      <c r="B3" s="6"/>
       <c r="C3" s="6" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
+      <c r="E3" s="8">
+        <v>42</v>
+      </c>
       <c r="F3" s="6"/>
-      <c r="G3" s="8">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="8">
-        <v>19</v>
-      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
       <c r="C4" s="6"/>
       <c r="D4" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="8">
-        <v>42</v>
-      </c>
-      <c r="G4" s="6"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A5" s="2" t="s">
-        <v>15</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="E4" s="8">
+        <v>22</v>
+      </c>
+      <c r="F4" s="6"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A5" s="6"/>
       <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
+      <c r="C5" s="8">
+        <v>14</v>
+      </c>
+      <c r="D5" s="8">
+        <v>34</v>
+      </c>
       <c r="E5" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="8">
-        <v>22</v>
-      </c>
-      <c r="G5" s="6"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="6"/>
+        <v>12</v>
+      </c>
+      <c r="F5" s="6"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A6" s="8">
+        <v>45</v>
+      </c>
+      <c r="B6" s="8">
+        <v>7</v>
+      </c>
       <c r="C6" s="6"/>
-      <c r="D6" s="8">
-        <v>14</v>
-      </c>
-      <c r="E6" s="8">
-        <v>34</v>
-      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
       <c r="F6" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" s="6"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="8">
-        <v>45</v>
-      </c>
-      <c r="C7" s="8">
-        <v>7</v>
-      </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
